--- a/medicine/Handicap/Mike_Oliver/Mike_Oliver.xlsx
+++ b/medicine/Handicap/Mike_Oliver/Mike_Oliver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael James Hoiles Oliver, dit Mike Oliver (né le 3 février 1945 à Chatham et mort le 2 mars 2019) est un sociologue britannique ainsi qu'auteur et activiste pour les droits des personnes handicapées. Il fut le premier professeur de Disability Studies (en) dans le monde, ainsi qu'un des premiers défenseurs et théoriciens du modèle social du handicap.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mike Oliver naît en 1945 à Chatham et grandit à Rochester, dans le Kent. Il arrête l'école à 16 ans pour devenir gestionnaire de paie. En 1962, alors qu'il est en vacances, il se brise la nuque, cet accident le laissera handicapé et en fauteuil roulant pour le reste de sa vie.
 Oliver rentre chez lui après un an de réhabilitation et recommence lentement à travailler, devenant éducateur à la Prison Borstal, une maison de correction pour mineurs. Il entreprend ensuite une licence de sociologie à l'Université de Reading en 1971, mais le support et arrangements pour personnes en situation de handicap sont inadéquats et il doit abandonner après quelques semaines. Il est alors transféré à l'Université du Kent où il obtient enfin sa licence, suivie par un master puis par un doctorat qu'il termine en 1978.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les principales œuvres écrites par Mike Oliver incluent :
 Michael Oliver, The politics of disablement, London, Macmillan Education, 1990 (ISBN 9780333432938)
